--- a/SGameProject/assets/xlsx/role.xlsx
+++ b/SGameProject/assets/xlsx/role.xlsx
@@ -1,60 +1,409 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
   </si>
   <si>
     <t>prefabid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bChanage</t>
+  </si>
+  <si>
+    <t>bDown</t>
+  </si>
+  <si>
+    <t>bShake</t>
+  </si>
+  <si>
+    <t>bFloat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -62,23 +411,308 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -368,100 +1002,212 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>0</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>6</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/SGameProject/assets/xlsx/role.xlsx
+++ b/SGameProject/assets/xlsx/role.xlsx
@@ -1,32 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="20385" windowHeight="7965"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="role" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>HLL</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">HLL:
+指向roletype表</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">HLL:
+指向preload表</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>预制图像</t>
+  </si>
+  <si>
+    <t>是否可以交换</t>
+  </si>
+  <si>
+    <t>是否可以下落</t>
+  </si>
+  <si>
+    <t>是否可爆炸</t>
+  </si>
+  <si>
+    <t>是否能拖动</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
     <t>prefabid</t>
   </si>
   <si>
+    <t>bChange</t>
+  </si>
+  <si>
     <t>bDown</t>
   </si>
   <si>
@@ -36,15 +99,38 @@
     <t>bFloat</t>
   </si>
   <si>
-    <t>bChange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>bear</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>frog</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>cat2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,21 +146,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -82,25 +492,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -390,205 +1084,259 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SGameProject/assets/xlsx/role.xlsx
+++ b/SGameProject/assets/xlsx/role.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20385" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">HLL:
+          <t>HLL:
 指向roletype表</t>
         </r>
       </text>
@@ -42,7 +42,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">HLL:
+          <t>HLL:
 指向preload表</t>
         </r>
       </text>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -118,19 +118,57 @@
   </si>
   <si>
     <t>cat2</t>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>har20</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>char25</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>char27</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>char29</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>char35</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>char38</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char39</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,345 +184,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -492,309 +217,30 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1084,22 +530,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="9" max="9" width="13.875" customWidth="1"/>
     <col min="10" max="10" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1177,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1203,7 +648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1229,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1255,7 +700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1281,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1307,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1333,10 +778,218 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SGameProject/assets/xlsx/role.xlsx
+++ b/SGameProject/assets/xlsx/role.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -161,6 +161,22 @@
   </si>
   <si>
     <t>char39</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bear2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chicken2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fox2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>frog2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -986,6 +1002,110 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="5">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="5">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SGameProject/assets/xlsx/role.xlsx
+++ b/SGameProject/assets/xlsx/role.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -84,16 +84,10 @@
     <t>type</t>
   </si>
   <si>
-    <t>prefabid</t>
-  </si>
-  <si>
     <t>bChange</t>
   </si>
   <si>
     <t>bDown</t>
-  </si>
-  <si>
-    <t>bShake</t>
   </si>
   <si>
     <t>bFloat</t>
@@ -177,6 +171,22 @@
   </si>
   <si>
     <t>frog2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>boomskill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>boomskill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bShake</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -237,10 +247,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -547,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -560,7 +569,7 @@
     <col min="10" max="10" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,8 +594,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -596,55 +608,61 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C4">
         <v>2</v>
       </c>
@@ -663,13 +681,16 @@
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -689,13 +710,16 @@
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -715,13 +739,16 @@
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -741,13 +768,16 @@
       <c r="H7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -767,13 +797,16 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -793,15 +826,18 @@
       <c r="H9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4">
         <v>7</v>
       </c>
       <c r="D10">
@@ -819,15 +855,18 @@
       <c r="H10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4">
         <v>8</v>
       </c>
       <c r="D11">
@@ -845,15 +884,18 @@
       <c r="H11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4">
         <v>9</v>
       </c>
       <c r="D12">
@@ -871,15 +913,18 @@
       <c r="H12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4">
         <v>10</v>
       </c>
       <c r="D13">
@@ -897,15 +942,18 @@
       <c r="H13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4">
         <v>11</v>
       </c>
       <c r="D14">
@@ -923,15 +971,18 @@
       <c r="H14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4">
         <v>13</v>
       </c>
       <c r="D15">
@@ -949,15 +1000,18 @@
       <c r="H15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4">
         <v>12</v>
       </c>
       <c r="D16">
@@ -975,15 +1029,18 @@
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="4">
         <v>13</v>
       </c>
       <c r="D17">
@@ -1001,15 +1058,18 @@
       <c r="H17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="4">
         <v>1</v>
       </c>
       <c r="D18">
@@ -1027,15 +1087,18 @@
       <c r="H18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="4">
         <v>3</v>
       </c>
       <c r="D19">
@@ -1053,15 +1116,18 @@
       <c r="H19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="4">
         <v>4</v>
       </c>
       <c r="D20">
@@ -1079,15 +1145,18 @@
       <c r="H20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="4">
         <v>5</v>
       </c>
       <c r="D21">
@@ -1103,6 +1172,9 @@
         <v>1</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>1</v>
       </c>
     </row>

--- a/SGameProject/assets/xlsx/role.xlsx
+++ b/SGameProject/assets/xlsx/role.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20385" windowHeight="7935"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>HLL:
+          <t xml:space="preserve">HLL:
 指向roletype表</t>
         </r>
       </text>
@@ -42,7 +42,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>HLL:
+          <t xml:space="preserve">HLL:
 指向preload表</t>
         </r>
       </text>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>id</t>
   </si>
@@ -78,18 +78,30 @@
     <t>是否能拖动</t>
   </si>
   <si>
+    <t>boomSkill</t>
+  </si>
+  <si>
+    <t>bornBuff</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
+    <t>prefabid</t>
+  </si>
+  <si>
     <t>bChange</t>
   </si>
   <si>
     <t>bDown</t>
   </si>
   <si>
+    <t>bShake</t>
+  </si>
+  <si>
     <t>bFloat</t>
   </si>
   <si>
@@ -115,6 +127,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>c</t>
     </r>
     <r>
@@ -123,78 +141,58 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>har20</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>char25</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>char27</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>char29</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>char35</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>char38</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>stone2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>char39</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>bear2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>chicken2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>fox2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>frog2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>boomskill</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>boomskill</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefabid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bShake</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>downrole</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,32 +208,351 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -243,29 +560,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -555,21 +1155,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="9" max="9" width="13.875" customWidth="1"/>
     <col min="10" max="10" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,44 +1196,50 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -655,13 +1262,16 @@
       <c r="I3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -684,13 +1294,16 @@
       <c r="I4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -713,13 +1326,16 @@
       <c r="I5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -742,13 +1358,16 @@
       <c r="I6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -771,13 +1390,16 @@
       <c r="I7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -800,13 +1422,16 @@
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -829,15 +1454,18 @@
       <c r="I9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3">
         <v>7</v>
       </c>
       <c r="D10">
@@ -858,15 +1486,18 @@
       <c r="I10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3">
         <v>8</v>
       </c>
       <c r="D11">
@@ -887,15 +1518,18 @@
       <c r="I11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3">
         <v>9</v>
       </c>
       <c r="D12">
@@ -916,15 +1550,18 @@
       <c r="I12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3">
         <v>10</v>
       </c>
       <c r="D13">
@@ -945,15 +1582,18 @@
       <c r="I13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3">
         <v>11</v>
       </c>
       <c r="D14">
@@ -974,15 +1614,18 @@
       <c r="I14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3">
         <v>13</v>
       </c>
       <c r="D15">
@@ -1003,15 +1646,18 @@
       <c r="I15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="4">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3">
         <v>12</v>
       </c>
       <c r="D16">
@@ -1032,15 +1678,18 @@
       <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="4">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3">
         <v>13</v>
       </c>
       <c r="D17">
@@ -1061,15 +1710,18 @@
       <c r="I17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="4">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18">
@@ -1090,15 +1742,18 @@
       <c r="I18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="4">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3">
         <v>3</v>
       </c>
       <c r="D19">
@@ -1119,15 +1774,18 @@
       <c r="I19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="4">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3">
         <v>4</v>
       </c>
       <c r="D20">
@@ -1148,15 +1806,18 @@
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="4">
+        <v>35</v>
+      </c>
+      <c r="C21" s="3">
         <v>5</v>
       </c>
       <c r="D21">
@@ -1177,11 +1838,46 @@
       <c r="I21">
         <v>1</v>
       </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SGameProject/assets/xlsx/role.xlsx
+++ b/SGameProject/assets/xlsx/role.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">HLL:
+          <t>HLL:
 指向roletype表</t>
         </r>
       </text>
@@ -42,7 +42,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">HLL:
+          <t>HLL:
 指向preload表</t>
         </r>
       </text>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -181,18 +181,16 @@
   <si>
     <t>downrole</t>
   </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,354 +203,29 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -560,251 +233,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -814,58 +245,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1155,22 +544,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="9" max="9" width="13.875" customWidth="1"/>
     <col min="10" max="10" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1201,8 +589,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1233,8 +624,11 @@
       <c r="J2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1265,8 +659,11 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1297,8 +694,11 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1329,8 +729,11 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1361,8 +764,11 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1393,8 +799,11 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1425,8 +834,11 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1457,8 +869,11 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1489,8 +904,11 @@
       <c r="J10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1521,8 +939,11 @@
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1553,8 +974,11 @@
       <c r="J12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1585,8 +1009,11 @@
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1617,8 +1044,11 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1649,8 +1079,11 @@
       <c r="J15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1681,8 +1114,11 @@
       <c r="J16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1708,13 +1144,16 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1745,8 +1184,11 @@
       <c r="J18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1777,8 +1219,11 @@
       <c r="J19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1809,8 +1254,11 @@
       <c r="J20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1841,8 +1289,11 @@
       <c r="J21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1873,11 +1324,14 @@
       <c r="J22">
         <v>3</v>
       </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SGameProject/assets/xlsx/role.xlsx
+++ b/SGameProject/assets/xlsx/role.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -183,6 +183,26 @@
   </si>
   <si>
     <t>score</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bear3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chicken3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fox3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>frog3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -545,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -660,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -695,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -730,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -765,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -800,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -870,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -905,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
@@ -940,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -975,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -1010,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -1045,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
@@ -1080,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
@@ -1150,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -1185,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
@@ -1220,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -1255,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
@@ -1290,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -1326,6 +1346,181 @@
       </c>
       <c r="K22">
         <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="3">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/SGameProject/assets/xlsx/role.xlsx
+++ b/SGameProject/assets/xlsx/role.xlsx
@@ -33,7 +33,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -203,6 +203,14 @@
   </si>
   <si>
     <t>frog3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -565,20 +573,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,31 +597,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -624,31 +635,34 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -674,16 +688,19 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -694,10 +711,10 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -709,16 +726,19 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -729,11 +749,11 @@
         <v>3</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
       <c r="F5">
         <v>1</v>
       </c>
@@ -744,16 +764,19 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -764,11 +787,11 @@
         <v>4</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
       <c r="F6">
         <v>1</v>
       </c>
@@ -779,16 +802,19 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -799,11 +825,11 @@
         <v>5</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
       <c r="F7">
         <v>1</v>
       </c>
@@ -814,16 +840,19 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -834,11 +863,11 @@
         <v>6</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
         <v>0</v>
       </c>
@@ -857,8 +886,11 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -869,11 +901,11 @@
         <v>2</v>
       </c>
       <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
         <v>8</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
       <c r="F9">
         <v>1</v>
       </c>
@@ -887,13 +919,16 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -903,12 +938,12 @@
       <c r="C10" s="3">
         <v>7</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>9</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
       <c r="F10">
         <v>1</v>
       </c>
@@ -919,16 +954,19 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -938,12 +976,12 @@
       <c r="C11" s="3">
         <v>8</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>10</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
       <c r="F11">
         <v>1</v>
       </c>
@@ -954,16 +992,19 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -973,12 +1014,12 @@
       <c r="C12" s="3">
         <v>9</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>11</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
       <c r="F12">
         <v>1</v>
       </c>
@@ -989,16 +1030,19 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1008,12 +1052,12 @@
       <c r="C13" s="3">
         <v>10</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>12</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
       <c r="F13">
         <v>1</v>
       </c>
@@ -1024,16 +1068,19 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1043,12 +1090,12 @@
       <c r="C14" s="3">
         <v>11</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>13</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
       <c r="F14">
         <v>1</v>
       </c>
@@ -1059,16 +1106,19 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1078,12 +1128,12 @@
       <c r="C15" s="3">
         <v>13</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>14</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
       <c r="F15">
         <v>1</v>
       </c>
@@ -1094,16 +1144,19 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1113,12 +1166,12 @@
       <c r="C16" s="3">
         <v>12</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>15</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
       <c r="F16">
         <v>0</v>
       </c>
@@ -1137,8 +1190,11 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1148,12 +1204,12 @@
       <c r="C17" s="3">
         <v>13</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17">
         <v>17</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
       <c r="F17">
         <v>1</v>
       </c>
@@ -1167,13 +1223,16 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1183,12 +1242,12 @@
       <c r="C18" s="3">
         <v>1</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18">
         <v>18</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
       <c r="F18">
         <v>1</v>
       </c>
@@ -1202,13 +1261,16 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1218,12 +1280,12 @@
       <c r="C19" s="3">
         <v>3</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19">
         <v>19</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
       <c r="F19">
         <v>1</v>
       </c>
@@ -1237,13 +1299,16 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1253,12 +1318,12 @@
       <c r="C20" s="3">
         <v>4</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20">
         <v>20</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
       <c r="F20">
         <v>1</v>
       </c>
@@ -1272,13 +1337,16 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1288,12 +1356,12 @@
       <c r="C21" s="3">
         <v>5</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21">
         <v>21</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
       <c r="F21">
         <v>1</v>
       </c>
@@ -1307,13 +1375,16 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1323,12 +1394,12 @@
       <c r="C22" s="3">
         <v>14</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>26</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
       <c r="F22">
         <v>0</v>
       </c>
@@ -1342,13 +1413,16 @@
         <v>0</v>
       </c>
       <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>3</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1358,12 +1432,12 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
+      <c r="E23">
         <v>27</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
       <c r="F23">
         <v>1</v>
       </c>
@@ -1374,16 +1448,19 @@
         <v>1</v>
       </c>
       <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
         <v>3</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1393,12 +1470,12 @@
       <c r="C24" s="3">
         <v>1</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24">
         <v>28</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
       <c r="F24">
         <v>1</v>
       </c>
@@ -1409,16 +1486,19 @@
         <v>1</v>
       </c>
       <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
         <v>3</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1428,12 +1508,12 @@
       <c r="C25" s="3">
         <v>3</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
+        <v>3</v>
+      </c>
+      <c r="E25">
         <v>29</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
       <c r="F25">
         <v>1</v>
       </c>
@@ -1444,16 +1524,19 @@
         <v>1</v>
       </c>
       <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
         <v>3</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1463,12 +1546,12 @@
       <c r="C26" s="3">
         <v>4</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26">
         <v>30</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
       <c r="F26">
         <v>1</v>
       </c>
@@ -1479,16 +1562,19 @@
         <v>1</v>
       </c>
       <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
         <v>3</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
       <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1498,12 +1584,12 @@
       <c r="C27" s="3">
         <v>5</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
+        <v>3</v>
+      </c>
+      <c r="E27">
         <v>31</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
       <c r="F27">
         <v>1</v>
       </c>
@@ -1514,12 +1600,15 @@
         <v>1</v>
       </c>
       <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
         <v>3</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
       <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>4</v>
       </c>
     </row>

--- a/SGameProject/assets/xlsx/role.xlsx
+++ b/SGameProject/assets/xlsx/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20385" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -211,6 +211,26 @@
   </si>
   <si>
     <t>level</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bear4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chicken4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fox4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>frog4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -573,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -919,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1223,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1261,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1299,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1337,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1375,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1610,6 +1630,196 @@
       </c>
       <c r="L27">
         <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>34</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>35</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3</v>
+      </c>
+      <c r="D30" s="3">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>36</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4</v>
+      </c>
+      <c r="D31" s="3">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>37</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="3">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>38</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/SGameProject/assets/xlsx/role.xlsx
+++ b/SGameProject/assets/xlsx/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20385" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20385" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -939,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1395,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <v>0</v>

--- a/SGameProject/assets/xlsx/role.xlsx
+++ b/SGameProject/assets/xlsx/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20385" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="20385" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>bear</t>
-  </si>
-  <si>
-    <t>cat</t>
   </si>
   <si>
     <t>chicken</t>
@@ -231,6 +228,62 @@
   </si>
   <si>
     <t>frog4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>catlock1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bearlock1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chickenlock1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>foxlock1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>froglock1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>boomSkill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>catlock2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bearlock2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chickenlock2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>foxlock2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>froglock2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>blood</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -593,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33:J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -606,7 +659,7 @@
     <col min="11" max="11" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +670,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -635,16 +688,19 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -655,7 +711,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
@@ -679,10 +735,13 @@
         <v>9</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -719,13 +778,16 @@
       <c r="L3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -757,13 +819,16 @@
       <c r="L4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -795,13 +860,16 @@
       <c r="L5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -833,13 +901,16 @@
       <c r="L6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -871,13 +942,16 @@
       <c r="L7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -909,13 +983,16 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -947,13 +1024,16 @@
       <c r="L9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3">
         <v>7</v>
@@ -985,13 +1065,16 @@
       <c r="L10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3">
         <v>8</v>
@@ -1023,13 +1106,16 @@
       <c r="L11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3">
         <v>9</v>
@@ -1061,13 +1147,16 @@
       <c r="L12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3">
         <v>10</v>
@@ -1099,13 +1188,16 @@
       <c r="L13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3">
         <v>11</v>
@@ -1137,13 +1229,16 @@
       <c r="L14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3">
         <v>13</v>
@@ -1175,13 +1270,16 @@
       <c r="L15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3">
         <v>12</v>
@@ -1213,13 +1311,16 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="3">
         <v>13</v>
@@ -1251,13 +1352,16 @@
       <c r="L17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -1289,13 +1393,16 @@
       <c r="L18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
@@ -1327,13 +1434,16 @@
       <c r="L19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3">
         <v>4</v>
@@ -1365,13 +1475,16 @@
       <c r="L20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3">
         <v>5</v>
@@ -1403,13 +1516,16 @@
       <c r="L21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3">
         <v>14</v>
@@ -1441,13 +1557,16 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1479,13 +1598,16 @@
       <c r="L23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -1517,13 +1639,16 @@
       <c r="L24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -1555,13 +1680,16 @@
       <c r="L25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="3">
         <v>4</v>
@@ -1593,13 +1721,16 @@
       <c r="L26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="3">
         <v>5</v>
@@ -1631,13 +1762,16 @@
       <c r="L27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -1669,13 +1803,16 @@
       <c r="L28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
@@ -1707,13 +1844,16 @@
       <c r="L29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="3">
         <v>3</v>
@@ -1745,13 +1885,16 @@
       <c r="L30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="3">
         <v>4</v>
@@ -1783,13 +1926,16 @@
       <c r="L31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="3">
         <v>5</v>
@@ -1820,6 +1966,419 @@
       </c>
       <c r="L32">
         <v>5</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>56</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="3">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>56</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="3">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>56</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>56</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>56</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="3">
+        <v>3</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="3">
+        <v>4</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>56</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="3">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/SGameProject/assets/xlsx/role.xlsx
+++ b/SGameProject/assets/xlsx/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="20385" windowHeight="8250"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="20385" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>boomSkill</t>
-  </si>
-  <si>
-    <t>bornBuff</t>
   </si>
   <si>
     <t>name</t>
@@ -259,10 +256,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>catlock2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -284,6 +277,22 @@
   </si>
   <si>
     <t>blood</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bornBuff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bornBuff#[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,11</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -648,13 +657,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33:J42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="11" width="10.75" customWidth="1"/>
   </cols>
@@ -670,7 +679,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -688,16 +697,16 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="L1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -705,40 +714,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
@@ -746,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -787,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -828,7 +837,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -869,7 +878,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -910,7 +919,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -951,7 +960,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -992,7 +1001,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1016,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1033,7 +1042,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3">
         <v>7</v>
@@ -1074,7 +1083,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3">
         <v>8</v>
@@ -1115,7 +1124,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3">
         <v>9</v>
@@ -1156,7 +1165,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3">
         <v>10</v>
@@ -1197,7 +1206,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3">
         <v>11</v>
@@ -1238,7 +1247,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3">
         <v>13</v>
@@ -1279,7 +1288,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3">
         <v>12</v>
@@ -1320,7 +1329,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3">
         <v>13</v>
@@ -1361,7 +1370,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -1385,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1402,7 +1411,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
@@ -1426,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1443,7 +1452,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3">
         <v>4</v>
@@ -1467,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1484,7 +1493,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3">
         <v>5</v>
@@ -1508,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1525,7 +1534,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="3">
         <v>14</v>
@@ -1566,7 +1575,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1607,7 +1616,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -1648,7 +1657,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -1689,7 +1698,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="3">
         <v>4</v>
@@ -1730,7 +1739,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="3">
         <v>5</v>
@@ -1771,7 +1780,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -1812,7 +1821,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
@@ -1853,7 +1862,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="3">
         <v>3</v>
@@ -1894,7 +1903,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="3">
         <v>4</v>
@@ -1935,7 +1944,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="3">
         <v>5</v>
@@ -1976,7 +1985,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -2000,10 +2009,10 @@
         <v>1</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -2017,7 +2026,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -2041,10 +2050,10 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -2058,7 +2067,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="3">
         <v>3</v>
@@ -2082,10 +2091,10 @@
         <v>1</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -2099,7 +2108,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="3">
         <v>4</v>
@@ -2123,10 +2132,10 @@
         <v>1</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -2140,7 +2149,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" s="3">
         <v>5</v>
@@ -2164,10 +2173,10 @@
         <v>1</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -2181,7 +2190,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -2205,10 +2214,10 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K38" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -2222,7 +2231,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
@@ -2246,10 +2255,10 @@
         <v>1</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -2263,7 +2272,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C40" s="3">
         <v>3</v>
@@ -2287,10 +2296,10 @@
         <v>1</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -2304,7 +2313,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C41" s="3">
         <v>4</v>
@@ -2328,10 +2337,10 @@
         <v>1</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K41" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -2345,7 +2354,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="3">
         <v>5</v>
@@ -2369,10 +2378,10 @@
         <v>1</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="L42">
         <v>1</v>

--- a/SGameProject/assets/xlsx/role.xlsx
+++ b/SGameProject/assets/xlsx/role.xlsx
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <v>0</v>

--- a/SGameProject/assets/xlsx/role.xlsx
+++ b/SGameProject/assets/xlsx/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="20385" windowHeight="8220"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="20385" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -288,11 +288,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>6,10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,11</t>
+    <t>6,10,12,13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,11,14,15</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K21">
         <v>0</v>
